--- a/ProjectCategorisation.xlsx
+++ b/ProjectCategorisation.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="-465" windowWidth="38400" windowHeight="24000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="-465" windowWidth="38400" windowHeight="24000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ProgrammingLanguage" sheetId="1" r:id="rId1"/>
     <sheet name="DevelopmentMethologies" sheetId="2" r:id="rId2"/>
-    <sheet name="Reason" sheetId="4" r:id="rId3"/>
-    <sheet name="Market" sheetId="3" r:id="rId4"/>
+    <sheet name="Platform" sheetId="5" r:id="rId3"/>
+    <sheet name="Reason" sheetId="4" r:id="rId4"/>
+    <sheet name="Market" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="101">
   <si>
     <t>Language</t>
   </si>
@@ -270,13 +271,73 @@
   </si>
   <si>
     <t>Unlimited</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>porting to</t>
+  </si>
+  <si>
+    <t>costs</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>Windows 7</t>
+  </si>
+  <si>
+    <t>Windows 8</t>
+  </si>
+  <si>
+    <t>Windows 10</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Windows Universal App</t>
+  </si>
+  <si>
+    <t>Windows Phone</t>
+  </si>
+  <si>
+    <t>Web Development</t>
+  </si>
+  <si>
+    <t>Mac OS</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>id2</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -300,13 +361,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -434,7 +527,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -445,13 +538,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="53">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -482,6 +580,237 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom/>
         <vertical style="thin">
@@ -498,72 +827,6 @@
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -699,24 +962,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -760,6 +1005,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -774,29 +1035,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -813,8 +1053,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -829,116 +1073,6 @@
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1113,6 +1247,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -1127,12 +1277,237 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -1149,26 +1524,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:N14" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="35" tableBorderDxfId="36" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:N14" totalsRowShown="0" headerRowDxfId="52" headerRowBorderDxfId="51" tableBorderDxfId="50" totalsRowBorderDxfId="49">
   <autoFilter ref="A1:N14"/>
   <sortState ref="A2:M14">
     <sortCondition ref="A1:A14"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Language" dataDxfId="33"/>
-    <tableColumn id="2" name="Imperative" dataDxfId="32"/>
-    <tableColumn id="3" name="Objectoriented" dataDxfId="31"/>
-    <tableColumn id="4" name="Functional" dataDxfId="30"/>
-    <tableColumn id="5" name="Procedural" dataDxfId="29"/>
-    <tableColumn id="6" name="Generic" dataDxfId="28"/>
-    <tableColumn id="7" name="Reflective" dataDxfId="27"/>
-    <tableColumn id="8" name="Eventdriven" dataDxfId="26"/>
-    <tableColumn id="9" name="Type safety" dataDxfId="25"/>
-    <tableColumn id="10" name="Type expression" dataDxfId="24"/>
-    <tableColumn id="11" name="Type compatibility" dataDxfId="23"/>
-    <tableColumn id="12" name="Type checking" dataDxfId="22"/>
-    <tableColumn id="13" name="Failsaife I/O" dataDxfId="21"/>
-    <tableColumn id="14" name="Spalte1" dataDxfId="19">
+    <tableColumn id="1" name="Language" dataDxfId="48"/>
+    <tableColumn id="2" name="Imperative" dataDxfId="47"/>
+    <tableColumn id="3" name="Objectoriented" dataDxfId="46"/>
+    <tableColumn id="4" name="Functional" dataDxfId="45"/>
+    <tableColumn id="5" name="Procedural" dataDxfId="44"/>
+    <tableColumn id="6" name="Generic" dataDxfId="43"/>
+    <tableColumn id="7" name="Reflective" dataDxfId="42"/>
+    <tableColumn id="8" name="Eventdriven" dataDxfId="12"/>
+    <tableColumn id="9" name="Type safety" dataDxfId="11"/>
+    <tableColumn id="10" name="Type expression" dataDxfId="10"/>
+    <tableColumn id="11" name="Type compatibility" dataDxfId="9"/>
+    <tableColumn id="12" name="Type checking" dataDxfId="7"/>
+    <tableColumn id="13" name="Failsaife I/O" dataDxfId="8"/>
+    <tableColumn id="14" name="Spalte1" dataDxfId="41">
       <calculatedColumnFormula>SUM(Tabelle1[[#This Row],[Imperative]:[Failsaife I/O]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1177,27 +1552,56 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:I7" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:I7"/>
-  <sortState ref="A2:H7">
-    <sortCondition ref="A1:A7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="A20:C98" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A20:C98"/>
+  <sortState ref="A21:C98">
+    <sortCondition ref="A20:A98"/>
   </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Methology" dataDxfId="9"/>
-    <tableColumn id="2" name="Defined Process" dataDxfId="8"/>
-    <tableColumn id="3" name="Final Product" dataDxfId="7"/>
-    <tableColumn id="4" name="Project Cost" dataDxfId="6"/>
-    <tableColumn id="5" name="Completion Date" dataDxfId="5"/>
-    <tableColumn id="6" name="Team flexibility" dataDxfId="4"/>
-    <tableColumn id="7" name="Knowledge Transfer" dataDxfId="3"/>
-    <tableColumn id="8" name="Risk" dataDxfId="2"/>
-    <tableColumn id="9" name="Success Factor" dataDxfId="0"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Language" dataDxfId="2"/>
+    <tableColumn id="2" name="TO" dataDxfId="1"/>
+    <tableColumn id="3" name="Costs" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:I7" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38" totalsRowBorderDxfId="37">
+  <autoFilter ref="A1:I7"/>
+  <sortState ref="A2:H7">
+    <sortCondition ref="A1:A7"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Methology" dataDxfId="36"/>
+    <tableColumn id="2" name="Defined Process" dataDxfId="35"/>
+    <tableColumn id="3" name="Final Product" dataDxfId="34"/>
+    <tableColumn id="4" name="Project Cost" dataDxfId="33"/>
+    <tableColumn id="5" name="Completion Date" dataDxfId="32"/>
+    <tableColumn id="6" name="Team flexibility" dataDxfId="31"/>
+    <tableColumn id="7" name="Knowledge Transfer" dataDxfId="30"/>
+    <tableColumn id="8" name="Risk" dataDxfId="29"/>
+    <tableColumn id="9" name="Success Factor" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:E112" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:E112"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="name" dataDxfId="18"/>
+    <tableColumn id="2" name="id" dataDxfId="17"/>
+    <tableColumn id="3" name="porting to" dataDxfId="16"/>
+    <tableColumn id="4" name="id2" dataDxfId="15"/>
+    <tableColumn id="5" name="costs" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:B3" totalsRowShown="0">
   <autoFilter ref="A1:B3"/>
   <tableColumns count="2">
@@ -1208,12 +1612,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:B4" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:B4" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="A1:B4"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Market" dataDxfId="15"/>
-    <tableColumn id="2" name="Value" dataDxfId="14"/>
+    <tableColumn id="1" name="Market" dataDxfId="23"/>
+    <tableColumn id="2" name="Value" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1541,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1632,16 +2036,16 @@
       <c r="H2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5">
-        <v>2</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>1</v>
+      </c>
+      <c r="K2" s="13">
+        <v>2</v>
+      </c>
+      <c r="L2" s="13">
         <v>1</v>
       </c>
       <c r="M2" s="6">
@@ -1677,24 +2081,24 @@
       <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>2</v>
-      </c>
-      <c r="K3" s="5">
-        <v>2</v>
-      </c>
-      <c r="L3" s="5">
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>2</v>
+      </c>
+      <c r="K3" s="13">
+        <v>2</v>
+      </c>
+      <c r="L3" s="13">
         <v>1</v>
       </c>
       <c r="M3" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" s="5">
         <f>SUM(Tabelle1[[#This Row],[Imperative]:[Failsaife I/O]])</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -1728,16 +2132,16 @@
       <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
-        <v>2</v>
-      </c>
-      <c r="L4" s="5">
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13">
+        <v>2</v>
+      </c>
+      <c r="L4" s="13">
         <v>1</v>
       </c>
       <c r="M4" s="6">
@@ -1779,16 +2183,16 @@
       <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="I5" s="5">
-        <v>2</v>
-      </c>
-      <c r="J5" s="5">
-        <v>2</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="I5" s="13">
+        <v>2</v>
+      </c>
+      <c r="J5" s="13">
+        <v>2</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
         <v>2</v>
       </c>
       <c r="M5" s="6">
@@ -1827,16 +2231,16 @@
       <c r="H6" s="5">
         <v>0</v>
       </c>
-      <c r="I6" s="5">
-        <v>2</v>
-      </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5">
-        <v>2</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="I6" s="13">
+        <v>2</v>
+      </c>
+      <c r="J6" s="13">
+        <v>1</v>
+      </c>
+      <c r="K6" s="13">
+        <v>2</v>
+      </c>
+      <c r="L6" s="13">
         <v>1</v>
       </c>
       <c r="M6" s="6">
@@ -1878,24 +2282,24 @@
       <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="5">
-        <v>2</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5">
-        <v>2</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="I7" s="13">
+        <v>2</v>
+      </c>
+      <c r="J7" s="13">
+        <v>1</v>
+      </c>
+      <c r="K7" s="13">
+        <v>2</v>
+      </c>
+      <c r="L7" s="13">
         <v>1</v>
       </c>
       <c r="M7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="5">
         <f>SUM(Tabelle1[[#This Row],[Imperative]:[Failsaife I/O]])</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O7" t="s">
         <v>29</v>
@@ -1926,16 +2330,16 @@
       <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="I8" s="5">
-        <v>2</v>
-      </c>
-      <c r="J8" s="5">
-        <v>2</v>
-      </c>
-      <c r="K8" s="5">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5">
+      <c r="I8" s="13">
+        <v>2</v>
+      </c>
+      <c r="J8" s="13">
+        <v>2</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13">
         <v>2</v>
       </c>
       <c r="M8" s="6">
@@ -1977,16 +2381,16 @@
       <c r="H9" s="5">
         <v>0</v>
       </c>
-      <c r="I9" s="5">
-        <v>2</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="I9" s="13">
+        <v>2</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
         <v>2</v>
       </c>
       <c r="M9" s="6">
@@ -2028,24 +2432,24 @@
       <c r="H10" s="5">
         <v>0</v>
       </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
-        <v>2</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13">
+        <v>1</v>
+      </c>
+      <c r="K10" s="13">
+        <v>2</v>
+      </c>
+      <c r="L10" s="13">
         <v>2</v>
       </c>
       <c r="M10" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="5">
         <f>SUM(Tabelle1[[#This Row],[Imperative]:[Failsaife I/O]])</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q10" t="s">
         <v>36</v>
@@ -2076,24 +2480,24 @@
       <c r="H11" s="5">
         <v>0</v>
       </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>2</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <v>2</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13">
         <v>2</v>
       </c>
       <c r="M11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="5">
         <f>SUM(Tabelle1[[#This Row],[Imperative]:[Failsaife I/O]])</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O11" t="s">
         <v>9</v>
@@ -2127,16 +2531,16 @@
       <c r="H12" s="5">
         <v>0</v>
       </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
         <v>2</v>
       </c>
       <c r="M12" s="6">
@@ -2175,24 +2579,24 @@
       <c r="H13" s="5">
         <v>0</v>
       </c>
-      <c r="I13" s="5">
-        <v>2</v>
-      </c>
-      <c r="J13" s="5">
-        <v>2</v>
-      </c>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5">
+      <c r="I13" s="13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="13">
+        <v>2</v>
+      </c>
+      <c r="K13" s="13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13">
         <v>2</v>
       </c>
       <c r="M13" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="5">
         <f>SUM(Tabelle1[[#This Row],[Imperative]:[Failsaife I/O]])</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O13" t="s">
         <v>42</v>
@@ -2226,24 +2630,24 @@
       <c r="H14" s="8">
         <v>1</v>
       </c>
-      <c r="I14" s="8">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8">
-        <v>2</v>
-      </c>
-      <c r="K14" s="8">
-        <v>2</v>
-      </c>
-      <c r="L14" s="8">
+      <c r="I14" s="14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14">
+        <v>2</v>
+      </c>
+      <c r="K14" s="14">
+        <v>2</v>
+      </c>
+      <c r="L14" s="14">
         <v>1</v>
       </c>
       <c r="M14" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="8">
         <f>SUM(Tabelle1[[#This Row],[Imperative]:[Failsaife I/O]])</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O14" t="s">
         <v>41</v>
@@ -2262,11 +2666,959 @@
         <v>40</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5">
+        <v>9</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="5">
+        <v>7</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="5">
+        <v>5</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="5">
+        <v>4</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="5">
+        <v>6</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="5">
+        <v>8</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="5">
+        <v>8</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="5">
+        <v>9</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2280,7 +3632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -2508,6 +3860,1934 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="5">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="8">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="5">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="5">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="5">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="5">
+        <v>11</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="8">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="5">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="5">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="5">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="5">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="5">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="5">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="5">
+        <v>6</v>
+      </c>
+      <c r="E29" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="5">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="5">
+        <v>7</v>
+      </c>
+      <c r="E30" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="5">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="5">
+        <v>8</v>
+      </c>
+      <c r="E31" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="5">
+        <v>3</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="5">
+        <v>9</v>
+      </c>
+      <c r="E32" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="5">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="5">
+        <v>11</v>
+      </c>
+      <c r="E33" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="5">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="8">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="5">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="5">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="5">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="5">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="5">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="5">
+        <v>4</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="5">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="5">
+        <v>5</v>
+      </c>
+      <c r="E39" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="5">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="5">
+        <v>6</v>
+      </c>
+      <c r="E40" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="5">
+        <v>4</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="5">
+        <v>7</v>
+      </c>
+      <c r="E41" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="5">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="5">
+        <v>8</v>
+      </c>
+      <c r="E42" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="5">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="5">
+        <v>9</v>
+      </c>
+      <c r="E43" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="5">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="5">
+        <v>11</v>
+      </c>
+      <c r="E44" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="5">
+        <v>4</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="8">
+        <v>10</v>
+      </c>
+      <c r="E45" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="5">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="5">
+        <v>5</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2</v>
+      </c>
+      <c r="E47" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="5">
+        <v>5</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="5">
+        <v>3</v>
+      </c>
+      <c r="E48" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="5">
+        <v>5</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="5">
+        <v>4</v>
+      </c>
+      <c r="E49" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="5">
+        <v>5</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="5">
+        <v>5</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="5">
+        <v>5</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="5">
+        <v>6</v>
+      </c>
+      <c r="E51" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="5">
+        <v>5</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="5">
+        <v>7</v>
+      </c>
+      <c r="E52" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="5">
+        <v>5</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="5">
+        <v>8</v>
+      </c>
+      <c r="E53" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="5">
+        <v>5</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="5">
+        <v>9</v>
+      </c>
+      <c r="E54" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="5">
+        <v>5</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="5">
+        <v>11</v>
+      </c>
+      <c r="E55" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="5">
+        <v>5</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="8">
+        <v>10</v>
+      </c>
+      <c r="E56" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="5">
+        <v>6</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="5">
+        <v>6</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="5">
+        <v>2</v>
+      </c>
+      <c r="E58" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="5">
+        <v>6</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="5">
+        <v>3</v>
+      </c>
+      <c r="E59" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="5">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="5">
+        <v>4</v>
+      </c>
+      <c r="E60" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="5">
+        <v>6</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="5">
+        <v>5</v>
+      </c>
+      <c r="E61" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="5">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="5">
+        <v>6</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="5">
+        <v>6</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="5">
+        <v>7</v>
+      </c>
+      <c r="E63" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="5">
+        <v>6</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="5">
+        <v>8</v>
+      </c>
+      <c r="E64" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="5">
+        <v>6</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="5">
+        <v>9</v>
+      </c>
+      <c r="E65" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="5">
+        <v>6</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="5">
+        <v>11</v>
+      </c>
+      <c r="E66" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="5">
+        <v>6</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="8">
+        <v>10</v>
+      </c>
+      <c r="E67" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="5">
+        <v>7</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="5">
+        <v>7</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="5">
+        <v>2</v>
+      </c>
+      <c r="E69" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="5">
+        <v>7</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="5">
+        <v>3</v>
+      </c>
+      <c r="E70" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="5">
+        <v>7</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="5">
+        <v>4</v>
+      </c>
+      <c r="E71" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="5">
+        <v>7</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="5">
+        <v>5</v>
+      </c>
+      <c r="E72" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="5">
+        <v>7</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="5">
+        <v>6</v>
+      </c>
+      <c r="E73" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="5">
+        <v>7</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="5">
+        <v>7</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="5">
+        <v>7</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="5">
+        <v>8</v>
+      </c>
+      <c r="E75" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="5">
+        <v>7</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="5">
+        <v>9</v>
+      </c>
+      <c r="E76" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="5">
+        <v>7</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="5">
+        <v>11</v>
+      </c>
+      <c r="E77" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="5">
+        <v>7</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" s="8">
+        <v>10</v>
+      </c>
+      <c r="E78" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="5">
+        <v>8</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1</v>
+      </c>
+      <c r="E79" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="5">
+        <v>8</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2</v>
+      </c>
+      <c r="E80" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="5">
+        <v>8</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="5">
+        <v>3</v>
+      </c>
+      <c r="E81" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" s="5">
+        <v>8</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="5">
+        <v>4</v>
+      </c>
+      <c r="E82" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="5">
+        <v>8</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="5">
+        <v>5</v>
+      </c>
+      <c r="E83" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="5">
+        <v>8</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="5">
+        <v>6</v>
+      </c>
+      <c r="E84" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="5">
+        <v>8</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="5">
+        <v>7</v>
+      </c>
+      <c r="E85" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="5">
+        <v>8</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="5">
+        <v>8</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="5">
+        <v>8</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" s="5">
+        <v>9</v>
+      </c>
+      <c r="E87" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="5">
+        <v>8</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" s="5">
+        <v>11</v>
+      </c>
+      <c r="E88" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="5">
+        <v>8</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="8">
+        <v>10</v>
+      </c>
+      <c r="E89" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="5">
+        <v>9</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1</v>
+      </c>
+      <c r="E90" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="5">
+        <v>9</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="5">
+        <v>2</v>
+      </c>
+      <c r="E91" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="5">
+        <v>9</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" s="5">
+        <v>3</v>
+      </c>
+      <c r="E92" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="5">
+        <v>9</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="5">
+        <v>4</v>
+      </c>
+      <c r="E93" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5">
+        <v>9</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94" s="5">
+        <v>5</v>
+      </c>
+      <c r="E94" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="5">
+        <v>9</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" s="5">
+        <v>6</v>
+      </c>
+      <c r="E95" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" s="5">
+        <v>9</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96" s="5">
+        <v>7</v>
+      </c>
+      <c r="E96" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" s="5">
+        <v>9</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97" s="5">
+        <v>8</v>
+      </c>
+      <c r="E97" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" s="5">
+        <v>9</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D98" s="5">
+        <v>9</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" s="5">
+        <v>9</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99" s="5">
+        <v>11</v>
+      </c>
+      <c r="E99" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" s="5">
+        <v>9</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" s="8">
+        <v>10</v>
+      </c>
+      <c r="E100" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="5">
+        <v>11</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D101" s="5">
+        <v>1</v>
+      </c>
+      <c r="E101" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102" s="5">
+        <v>11</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D102" s="5">
+        <v>2</v>
+      </c>
+      <c r="E102" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" s="5">
+        <v>11</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D103" s="5">
+        <v>3</v>
+      </c>
+      <c r="E103" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104" s="5">
+        <v>11</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" s="5">
+        <v>4</v>
+      </c>
+      <c r="E104" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B105" s="5">
+        <v>11</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" s="5">
+        <v>5</v>
+      </c>
+      <c r="E105" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B106" s="5">
+        <v>11</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D106" s="5">
+        <v>6</v>
+      </c>
+      <c r="E106" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B107" s="5">
+        <v>11</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="5">
+        <v>7</v>
+      </c>
+      <c r="E107" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B108" s="5">
+        <v>11</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D108" s="5">
+        <v>8</v>
+      </c>
+      <c r="E108" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B109" s="5">
+        <v>11</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D109" s="5">
+        <v>9</v>
+      </c>
+      <c r="E109" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B110" s="5">
+        <v>11</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D110" s="5">
+        <v>11</v>
+      </c>
+      <c r="E110" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B111" s="5">
+        <v>11</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111" s="8">
+        <v>10</v>
+      </c>
+      <c r="E111" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B112" s="8">
+        <v>10</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E112" s="9">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2551,7 +5831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
